--- a/src/apis/WorkingChannels.xlsx
+++ b/src/apis/WorkingChannels.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,558 +413,253 @@
         <v>lastNotif</v>
       </c>
       <c r="D1" t="str">
+        <v>subscribers</v>
+      </c>
+      <c r="E1" t="str">
         <v>chain</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0x90A48D5CF7343B08dA12E067680B4C6dbfE551Be</v>
+        <v>0xabb76Cb55B0B9Ef6Aa8D043e036b16687506bfee</v>
       </c>
       <c r="B2" t="str">
-        <v>ShapeShift Governance</v>
+        <v>Price Tracker</v>
       </c>
       <c r="C2" t="str">
-        <v>Mon Mar 18 2024 22:58:04</v>
-      </c>
-      <c r="D2" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 19:30:50</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0x983110309620D911731Ac0932219af06091b6744</v>
+        <v>0x94051eE59A831E247590cE779DF065dd77EF5d0a</v>
       </c>
       <c r="B3" t="str">
-        <v>ENS</v>
+        <v>Quickswap</v>
       </c>
       <c r="C3" t="str">
-        <v>Mon Mar 18 2024 05:55:28</v>
-      </c>
-      <c r="D3" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 17:31:05</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0x2B8ffb4460550Dbe8Ec1cEA9C1B61322dB56B082</v>
+        <v>0x369DB4c69319E1ca009FdfeA6d172A88210dbf05</v>
       </c>
       <c r="B4" t="str">
-        <v>ETH Gas Price Tracker</v>
+        <v>Camino buildathon</v>
       </c>
       <c r="C4" t="str">
-        <v>Mon Mar 18 2024 17:34:28</v>
-      </c>
-      <c r="D4" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Fri Jul 12 2024 00:35:30</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x03EAAAa48ea78d1E66eA3458364d553AD981871E</v>
+        <v>0x3649E43D0C73898dd86f225598f1A6AA5f03b765</v>
       </c>
       <c r="B5" t="str">
-        <v>BTC Tracker</v>
+        <v>BeInCrypto</v>
       </c>
       <c r="C5" t="str">
-        <v>Mon Mar 18 2024 20:38:46</v>
-      </c>
-      <c r="D5" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Fri Jul 12 2024 11:30:03</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xe56f1D3EDFFF1f25855aEF744caFE7991c224FFF</v>
+        <v>0x143845eb9462B853A5362d8cEbbBB25153A96e3C</v>
       </c>
       <c r="B6" t="str">
-        <v>CoinDesk</v>
+        <v>Bankless</v>
       </c>
       <c r="C6" t="str">
-        <v>Mon Mar 18 2024 22:36:24</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Fri Jul 12 2024 11:30:21</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x57cD6665e725232123F5250328E35Db6ABf6d80C</v>
+        <v>0xfDCA1ea0C2E7a59cF401354CB21fC8aC7FA348b2</v>
       </c>
       <c r="B7" t="str">
-        <v>Rekt</v>
+        <v>Lucky Draw</v>
       </c>
       <c r="C7" t="str">
-        <v>Fri Mar 15 2024 02:34:19</v>
-      </c>
-      <c r="D7" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 17:30:56</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0x2Ee77bA42220Cb41f972b9F66088D0A9f4F156f1</v>
+        <v>0xae8689B3711F27B640bA4dbC5bF65398dbE28016</v>
       </c>
       <c r="B8" t="str">
-        <v>Loty</v>
+        <v>Lens Protocol</v>
       </c>
       <c r="C8" t="str">
-        <v>Mon Mar 18 2024 22:52:06</v>
-      </c>
-      <c r="D8" t="str">
-        <v>BSC_MAINNET</v>
+        <v>Fri Jul 12 2024 13:42:15</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x9Fb3d86157a9e2dC2a771C297f88FA9784fa4e31</v>
+        <v>0xeddd9CB14763A31f1Aa24408fafA207778d73075</v>
       </c>
       <c r="B9" t="str">
-        <v>hats.finance</v>
+        <v>Cryptobs</v>
       </c>
       <c r="C9" t="str">
-        <v>Sun Mar 17 2024 22:04:05</v>
-      </c>
-      <c r="D9" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 19:30:59</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0xAA940b3501176af328423d975C350d0d1BaAae50</v>
+        <v>0x08D0A7DB26E30a0b5f157dc97D8cAdB948c3c913</v>
       </c>
       <c r="B10" t="str">
-        <v>Aave</v>
+        <v>BadgerDAO</v>
       </c>
       <c r="C10" t="str">
-        <v>Mon Mar 18 2024 20:35:02</v>
-      </c>
-      <c r="D10" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 17:30:55</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x97E5271f2987c7A3450e21dD7FFe4D004ddE773E</v>
+        <v>0xbbc010b31C998CcAc14E12710Bf44Ed6b523CbDa</v>
       </c>
       <c r="B11" t="str">
-        <v xml:space="preserve">Uniswap V3 </v>
+        <v>Aave-2</v>
       </c>
       <c r="C11" t="str">
-        <v>Mon Mar 18 2024 05:30:19</v>
-      </c>
-      <c r="D11" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Fri Jul 12 2024 11:30:23</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0xfE4A6Fbd27B496855245A1e8047F693f0aDfDb08</v>
+        <v>0x085426Ca3958bD760F4817f7cF139Ce0CbB9F7AF</v>
       </c>
       <c r="B12" t="str">
-        <v>Push Governance</v>
+        <v>Test</v>
       </c>
       <c r="C12" t="str">
-        <v>Sat Mar 09 2024 05:34:20</v>
-      </c>
-      <c r="D12" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 19:26:37</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0xde3e447E125FA2391DC9BCbfA0B821424422FEAF</v>
+        <v>0x5d44f1412ED9B71f1FE8Dc32128d175Ed797E489</v>
       </c>
       <c r="B13" t="str">
-        <v>Cryptocurrency Jobs</v>
+        <v>DEB_Channel1</v>
       </c>
       <c r="C13" t="str">
-        <v>Mon Mar 18 2024 15:36:37</v>
-      </c>
-      <c r="D13" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 18:15:06</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0xBCAc4dafB7e215f2F6cb3312aF6D5e4F9d9E7eDA</v>
+        <v>0x8571D9cFE64B8E47bA0851BbAc9309F28c3436BF</v>
       </c>
       <c r="B14" t="str">
-        <v>Decentraland</v>
+        <v>BTC Tracker</v>
       </c>
       <c r="C14" t="str">
-        <v>Mon Mar 18 2024 21:34:24</v>
-      </c>
-      <c r="D14" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 17:30:39</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x54728f10F525193A61Ded237707f2d5022cA4977</v>
+        <v>0x7f8B35D47AaCf62ed934327AA0A42Eb6C08C2E67</v>
       </c>
       <c r="B15" t="str">
-        <v>Developer DAO</v>
+        <v>Lens</v>
       </c>
       <c r="C15" t="str">
-        <v>Mon Mar 18 2024 17:34:26</v>
-      </c>
-      <c r="D15" t="str">
-        <v>BSC_MAINNET</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>0x0e255B1900b8cE23f8E818C7Ee08cfd5b41df748</v>
-      </c>
-      <c r="B16" t="str">
-        <v>ApeSwap</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Mon Mar 18 2024 20:34:32</v>
-      </c>
-      <c r="D16" t="str">
-        <v>POLYGON_MAINNET</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>0x458E4E1877F2F0D6752bD6f6DFd2e9048C2A56b3</v>
-      </c>
-      <c r="B17" t="str">
-        <v>SushiSwap</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Sun Mar 03 2024 23:34:19</v>
-      </c>
-      <c r="D17" t="str">
-        <v>POLYGON_MAINNET</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>0x30a1627fDdc0dBB7dD00b881D25A45B443f294bB</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Crypto Jobs List</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Mon Mar 18 2024 22:39:29</v>
-      </c>
-      <c r="D18" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>0x4E15B14B9950A04370E36f2Ec05546ED5867ADeF</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Bankless</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Mon Mar 18 2024 20:35:42</v>
-      </c>
-      <c r="D19" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>0x361Cb6BE977d0113A33914A8f952Ced95747F793</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Fabwelt</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Mon Mar 18 2024 19:24:31</v>
-      </c>
-      <c r="D20" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>0xA2dEe32662F6243dA539bf6A8613F9A9e39843D3</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Angle Protocol</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Mon Mar 18 2024 05:35:01</v>
-      </c>
-      <c r="D21" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>0x4310f4F206c9a18d8436bD0052065528771f4723</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Loty Partner</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Mon Mar 18 2024 21:31:24</v>
-      </c>
-      <c r="D22" t="str">
-        <v>BSC_MAINNET</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>0x7239B1896ad2b6A9D3aA6C4B12D8993E78fb67Dc</v>
-      </c>
-      <c r="B23" t="str">
-        <v>DappLooker</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Sun Mar 17 2024 18:30:14</v>
-      </c>
-      <c r="D23" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>0x4BaaC83d0A68C079550142B9d792328b7C239844</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Decentraland DAO</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Mon Mar 18 2024 08:10:22</v>
-      </c>
-      <c r="D24" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>0x026B7A15ad04180aBEe7fEaf34e0F695426BD193</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Push Español</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Sun Mar 17 2024 21:40:26</v>
-      </c>
-      <c r="D25" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>0x0f0aE1ceEBc4b5aB14A47202eD6A52D3ef698b5B</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Wallet Tracker</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Mon Mar 18 2024 20:34:43</v>
-      </c>
-      <c r="D26" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>0x70Be0de1D95240a73F6C24cD07A155D9E78d8B60</v>
-      </c>
-      <c r="B27" t="str">
-        <v>W Test</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Fri Mar 15 2024 01:00:30</v>
-      </c>
-      <c r="D27" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>0x338EF19fA2eC0fc4d1277B1307a613fA1FBbc0cb</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Woop Pay</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Mon Mar 18 2024 06:32:30</v>
-      </c>
-      <c r="D28" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>0x6575A93aBdFf85e5A6b97c2DB2b83bCEbc3574eC</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Phuture</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Mon Mar 18 2024 05:34:33</v>
-      </c>
-      <c r="D29" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>0x5aaB02cCA6F3c89bB2E10749603387c287A115Cb</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Wherever</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Fri Mar 15 2024 11:15:47</v>
-      </c>
-      <c r="D30" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>0xA8F0048A0d1A04663Ca5010d0bEaC5BCAEeA0eef</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Nación Bankless</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Fri Mar 15 2024 21:56:31</v>
-      </c>
-      <c r="D31" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>0xE9335f48cFA1f0a55E376dd306BAE6dD2f6Cdb96</v>
-      </c>
-      <c r="B32" t="str">
-        <v>Verso x Push campaign</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Thu Mar 07 2024 14:34:04</v>
-      </c>
-      <c r="D32" t="str">
-        <v>BSC_MAINNET</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>0x48De2669db5C2da4bf36C29ef9CFd62057B4b6C8</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Price Tracker</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Mon Mar 18 2024 20:34:31</v>
-      </c>
-      <c r="D33" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>0xf4b71ceF90736Eb644Cc678b2C795ACdeaC198E1</v>
-      </c>
-      <c r="B34" t="str">
-        <v>Google BigQuery</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Mon Mar 18 2024 05:34:51</v>
-      </c>
-      <c r="D34" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>0x554d29160f779Adf0a4328597cD33Ea1Df4D9Ee9</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Web3 BugBounty Alert</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Fri Mar 15 2024 17:23:25</v>
-      </c>
-      <c r="D35" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>0x50b6a9BA0b1cA77Ce67c22b30aFC0a5BbBDB5a18</v>
-      </c>
-      <c r="B36" t="str">
-        <v>dhive</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Fri Mar 15 2024 14:11:14</v>
-      </c>
-      <c r="D36" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>0x12A2455CCa45D8f6d9149F0e996260Ae49EDA8B4</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Mundo Virtual Solutions</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Tue Mar 12 2024 20:39:03</v>
-      </c>
-      <c r="D37" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>0x1b03258050dDf9fA2C93331Db6395b46C2a07718</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Starlight Anya</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Mon Mar 18 2024 14:27:42</v>
-      </c>
-      <c r="D38" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>0x93A829d16DE51745Db0530A0F8E8A9B8CA5370E5</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Copperx</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Mon Mar 18 2024 20:38:16</v>
-      </c>
-      <c r="D39" t="str">
-        <v>ETH_MAINNET</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>0x1A17beA23DFa5D9CF5B0d0838C826Ad88537c6fb</v>
-      </c>
-      <c r="B40" t="str">
-        <v>StationX</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Sun Mar 17 2024 09:47:52</v>
-      </c>
-      <c r="D40" t="str">
-        <v>ETH_MAINNET</v>
+        <v>Thu Jul 11 2024 17:57:43</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="str">
+        <v>ETH_TESTNET</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
   </ignoredErrors>
 </worksheet>
 </file>